--- a/DNSMOS/findings.xlsx
+++ b/DNSMOS/findings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huguo\Documents\DNSMOS\DNS-Challenge\DNSMOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2600040D-8D53-4751-85F4-693F11CF497B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A35E2E-486A-489A-B8A1-3A1A5AB76014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{29196BA4-3613-4F68-A503-FAED15D76895}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,8 +533,12 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="3">
+        <v>0.41409000000000001</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.15640000000000001</v>
+      </c>
       <c r="D3" s="5">
         <v>0.90515999999999996</v>
       </c>
@@ -552,8 +556,12 @@
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="5">
+        <v>7.2440000000000004E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.1188</v>
+      </c>
       <c r="D4" s="3">
         <v>0.94489999999999996</v>
       </c>
@@ -603,8 +611,12 @@
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="B8" s="3">
+        <v>0.41409000000000001</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.15640000000000001</v>
+      </c>
       <c r="D8" s="3">
         <v>0.90515999999999996</v>
       </c>
@@ -622,8 +634,12 @@
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="3">
+        <v>0.15362999999999999</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.30747000000000002</v>
+      </c>
       <c r="D9" s="5">
         <v>0.26866000000000001</v>
       </c>
@@ -641,8 +657,12 @@
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="B10" s="5">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.4622</v>
+      </c>
       <c r="D10" s="3">
         <v>0.33732000000000001</v>
       </c>

--- a/DNSMOS/findings.xlsx
+++ b/DNSMOS/findings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huguo\Documents\DNSMOS\DNS-Challenge\DNSMOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huguo\documents\DNSMOS-Project\DNS-Challenge\dnsmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A35E2E-486A-489A-B8A1-3A1A5AB76014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7496F382-0840-4FA2-82FD-54A7C17BA830}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{29196BA4-3613-4F68-A503-FAED15D76895}"/>
   </bookViews>
@@ -162,13 +162,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -498,39 +498,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="3">
@@ -539,27 +539,27 @@
       <c r="C3" s="3">
         <v>0.15640000000000001</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.90515999999999996</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1.0320499999999999</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1.22905</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>0.35114000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>7.2440000000000004E-2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.1188</v>
       </c>
       <c r="D4" s="3">
@@ -576,39 +576,39 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3">
@@ -626,12 +626,12 @@
       <c r="F8" s="3">
         <v>1.22905</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>0.35114000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
@@ -640,7 +640,7 @@
       <c r="C9" s="3">
         <v>0.30747000000000002</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>0.26866000000000001</v>
       </c>
       <c r="E9" s="3">
@@ -654,10 +654,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>7.3400000000000007E-2</v>
       </c>
       <c r="C10" s="3">
